--- a/audit-SEO-chouette.xlsx
+++ b/audit-SEO-chouette.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\excellentia5\Documents\FORMATION\P4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\excellentia5\Documents\FORMATION\Git-repos\P4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E769AFB8-2393-43DE-96A6-B1C67CB06A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3881C38E-2F16-437F-9353-63227884F2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -120,9 +120,6 @@
     <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/title</t>
   </si>
   <si>
-    <t>Remplacer le "." par "Accueil" ou "Bienvenue"</t>
-  </si>
-  <si>
     <t>Un texte conci qui résume le projet de l'organisation</t>
   </si>
   <si>
@@ -202,6 +199,9 @@
   </si>
   <si>
     <t>Mettre en place des appels et réponses aux actions de l'utilisateur pour lui permettre d'utiliser le site web, ici le formulaire de contact</t>
+  </si>
+  <si>
+    <t>Remplacer le "." par "La Chouette Agence - Accueil" ou et "page2" par "La Chouette Agence - Contact"</t>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -579,7 +579,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:26" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -590,10 +590,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>28</v>
@@ -610,10 +610,10 @@
         <v>21</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -627,10 +627,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -644,10 +644,10 @@
         <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -655,16 +655,16 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -678,10 +678,10 @@
         <v>25</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -692,13 +692,13 @@
         <v>15</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -712,10 +712,10 @@
         <v>22</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -723,16 +723,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -746,10 +746,10 @@
         <v>26</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -763,10 +763,10 @@
         <v>17</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -780,10 +780,10 @@
         <v>27</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/audit-SEO-chouette.xlsx
+++ b/audit-SEO-chouette.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\excellentia5\Documents\FORMATION\Git-repos\P4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3881C38E-2F16-437F-9353-63227884F2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C424F9-EE3F-4EC8-AE77-F11E83F335A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>Catégorie</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Balise meta description manquante</t>
   </si>
   <si>
-    <t>Egalement lue et affichée dans les résultats de recherche pour présenter brièvement le site et sa page</t>
-  </si>
-  <si>
     <t>Considéré comme une tentative d'abus. Peut-être sanctionné par Google</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/title</t>
   </si>
   <si>
-    <t>Un texte conci qui résume le projet de l'organisation</t>
-  </si>
-  <si>
     <t>Rédiger une présentation brève de l'organisation</t>
   </si>
   <si>
@@ -202,6 +196,27 @@
   </si>
   <si>
     <t>Remplacer le "." par "La Chouette Agence - Accueil" ou et "page2" par "La Chouette Agence - Contact"</t>
+  </si>
+  <si>
+    <t>Accessibilité + SEO</t>
+  </si>
+  <si>
+    <t>Le code html et css présente des erreurs et avertissements aux validateurs</t>
+  </si>
+  <si>
+    <t>Un ensemble de pratiques sont invalidées par un consensus des experts du métier (W3C). Elles peuvent entrainer des anomalies et géner la navigation de l'utilisateur final et des algos Google.</t>
+  </si>
+  <si>
+    <t>Toujours utiliser les validateurs HTML et CSS pour vérifier si le code produit respecte les normes</t>
+  </si>
+  <si>
+    <t>Apporter les corrections recommandées par les validateurs.</t>
+  </si>
+  <si>
+    <t>Un texte conci qui résume le projet de l'organisation et/ou le contenu thématique de la page.</t>
+  </si>
+  <si>
+    <t>Egalement lue par les algos Google et affichée dans les résultats de recherche pour présenter brièvement le site et sa page</t>
   </si>
 </sst>
 </file>
@@ -518,7 +533,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -590,13 +605,13 @@
         <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -607,13 +622,13 @@
         <v>20</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -624,13 +639,13 @@
         <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -641,13 +656,13 @@
         <v>10</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -655,33 +670,33 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -692,13 +707,13 @@
         <v>15</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -709,13 +724,13 @@
         <v>16</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -723,16 +738,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -743,13 +758,13 @@
         <v>18</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -763,10 +778,10 @@
         <v>17</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -777,17 +792,31 @@
         <v>14</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="5"/>
+    <row r="15" spans="1:26" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E16" s="5"/>

--- a/audit-SEO-chouette.xlsx
+++ b/audit-SEO-chouette.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\excellentia5\Documents\FORMATION\Git-repos\P4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C424F9-EE3F-4EC8-AE77-F11E83F335A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97F921A-76D6-445F-B51C-D79DD7E02C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
   <si>
     <t>Catégorie</t>
   </si>
@@ -93,9 +93,6 @@
     <t>title est lue par les algos Google et c'est ce qui est affiché dans les résultats de recherche</t>
   </si>
   <si>
-    <t>Balise meta description manquante</t>
-  </si>
-  <si>
     <t>Considéré comme une tentative d'abus. Peut-être sanctionné par Google</t>
   </si>
   <si>
@@ -217,6 +214,15 @@
   </si>
   <si>
     <t>Egalement lue par les algos Google et affichée dans les résultats de recherche pour présenter brièvement le site et sa page</t>
+  </si>
+  <si>
+    <t>Statut</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Balises meta description manquantes</t>
   </si>
 </sst>
 </file>
@@ -261,7 +267,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,6 +278,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor rgb="FF7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -294,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -312,6 +324,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -533,7 +548,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -567,7 +582,9 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -605,13 +622,16 @@
         <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -619,16 +639,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -639,13 +662,16 @@
         <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>30</v>
+      <c r="G5" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -656,13 +682,13 @@
         <v>10</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -670,33 +696,33 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -707,13 +733,13 @@
         <v>15</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -724,13 +750,13 @@
         <v>16</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -738,16 +764,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -758,13 +784,13 @@
         <v>18</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -778,10 +804,10 @@
         <v>17</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -792,30 +818,30 @@
         <v>14</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/audit-SEO-chouette.xlsx
+++ b/audit-SEO-chouette.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\excellentia5\Documents\FORMATION\Git-repos\P4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97F921A-76D6-445F-B51C-D79DD7E02C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B1031A-79CF-449C-845E-731C2582A036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>Catégorie</t>
   </si>
@@ -546,9 +546,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -689,6 +689,9 @@
       </c>
       <c r="E6" s="5" t="s">
         <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">

--- a/audit-SEO-chouette.xlsx
+++ b/audit-SEO-chouette.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\excellentia5\Documents\FORMATION\Git-repos\P4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B1031A-79CF-449C-845E-731C2582A036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E228F90-C95F-4B08-AEC2-2DBA14DFFB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
   <si>
     <t>Catégorie</t>
   </si>
@@ -204,9 +204,6 @@
     <t>Un ensemble de pratiques sont invalidées par un consensus des experts du métier (W3C). Elles peuvent entrainer des anomalies et géner la navigation de l'utilisateur final et des algos Google.</t>
   </si>
   <si>
-    <t>Toujours utiliser les validateurs HTML et CSS pour vérifier si le code produit respecte les normes</t>
-  </si>
-  <si>
     <t>Apporter les corrections recommandées par les validateurs.</t>
   </si>
   <si>
@@ -223,6 +220,21 @@
   </si>
   <si>
     <t>Balises meta description manquantes</t>
+  </si>
+  <si>
+    <t>L'avis laissé par un client est affiché via un fichier img</t>
+  </si>
+  <si>
+    <t>Utiliser les validateurs HTML et CSS systématiquement pour vérifier si le code produit respecte les normes</t>
+  </si>
+  <si>
+    <t>Préférer inscrire directement le texte via HTML et styler avec CSS.</t>
+  </si>
+  <si>
+    <t>Ce type de contenu s'adapte mal au plus grand nombre d'utilisateurs, notamment les personnes mal voyantes ou non voyantes. Aussi, ce type de contenu vient enrichir l'espace occupé dans les résultats de recherche.</t>
+  </si>
+  <si>
+    <t>Remplacer le texte fichier img par une version tapuscrite.</t>
   </si>
 </sst>
 </file>
@@ -547,8 +559,8 @@
   <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -583,7 +595,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -631,7 +643,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -639,19 +651,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -671,7 +683,7 @@
         <v>29</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -691,7 +703,7 @@
         <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -710,6 +722,9 @@
       <c r="E7" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="G7" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
@@ -841,14 +856,28 @@
         <v>56</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>58</v>
-      </c>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="5"/>
+    <row r="16" spans="1:26" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="17" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E17" s="5"/>

--- a/audit-SEO-chouette.xlsx
+++ b/audit-SEO-chouette.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\excellentia5\Documents\FORMATION\Git-repos\P4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E228F90-C95F-4B08-AEC2-2DBA14DFFB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE93565C-ED2D-46C3-9716-EBEC65D02040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
   <si>
     <t>Catégorie</t>
   </si>
@@ -560,7 +560,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -741,6 +741,9 @@
       </c>
       <c r="E8" s="5" t="s">
         <v>35</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">

--- a/audit-SEO-chouette.xlsx
+++ b/audit-SEO-chouette.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\excellentia5\Documents\FORMATION\Git-repos\P4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE93565C-ED2D-46C3-9716-EBEC65D02040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FC5C07-4B0A-442A-80D9-D17E9CC2C69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
   <si>
     <t>Catégorie</t>
   </si>
@@ -235,6 +235,18 @@
   </si>
   <si>
     <t>Remplacer le texte fichier img par une version tapuscrite.</t>
+  </si>
+  <si>
+    <t>Certaines parties du texte ne sont pas assez contrastées avec la couleur de fond.</t>
+  </si>
+  <si>
+    <t>Provoque une gène de lecture auprès de l'utilisateur.</t>
+  </si>
+  <si>
+    <t>S'assurer que les contrastes sont assez prononcés pour permettre une lecture aisée.</t>
+  </si>
+  <si>
+    <t>Modifier la couleur de la police d'écriture ou de l'arrière plan pour favoriser la lecture</t>
   </si>
 </sst>
 </file>
@@ -559,8 +571,8 @@
   <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -779,6 +791,9 @@
       <c r="E10" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="G10" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -882,26 +897,43 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="5"/>
+    <row r="17" spans="1:7" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="18" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/audit-SEO-chouette.xlsx
+++ b/audit-SEO-chouette.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\excellentia5\Documents\FORMATION\Git-repos\P4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FC5C07-4B0A-442A-80D9-D17E9CC2C69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4A6941-4C5E-4B29-BF85-E17285028594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="72">
   <si>
     <t>Catégorie</t>
   </si>
@@ -572,7 +572,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -810,6 +810,9 @@
       </c>
       <c r="E11" s="5" t="s">
         <v>51</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">

--- a/audit-SEO-chouette.xlsx
+++ b/audit-SEO-chouette.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\excellentia5\Documents\FORMATION\Git-repos\P4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4A6941-4C5E-4B29-BF85-E17285028594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4932D5F5-9701-420E-9398-43B3BE34F5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
   <si>
     <t>Catégorie</t>
   </si>
@@ -162,9 +162,6 @@
     <t>Seulement des fichiers au format jpg/jpeg ou png</t>
   </si>
   <si>
-    <t>Convertir le fichier img</t>
-  </si>
-  <si>
     <t>Utiliser des animations CSS et afficher un texte en cas d'anomalie</t>
   </si>
   <si>
@@ -222,9 +219,6 @@
     <t>Balises meta description manquantes</t>
   </si>
   <si>
-    <t>L'avis laissé par un client est affiché via un fichier img</t>
-  </si>
-  <si>
     <t>Utiliser les validateurs HTML et CSS systématiquement pour vérifier si le code produit respecte les normes</t>
   </si>
   <si>
@@ -247,6 +241,12 @@
   </si>
   <si>
     <t>Modifier la couleur de la police d'écriture ou de l'arrière plan pour favoriser la lecture</t>
+  </si>
+  <si>
+    <t>Convertir les fichiers img</t>
+  </si>
+  <si>
+    <t>Certains textes sont affichés via un fichier img</t>
   </si>
 </sst>
 </file>
@@ -571,8 +571,8 @@
   <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -607,7 +607,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -649,13 +649,13 @@
         <v>34</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -663,19 +663,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -695,7 +695,7 @@
         <v>29</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -715,7 +715,7 @@
         <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -723,7 +723,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>20</v>
@@ -735,7 +735,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -755,7 +755,7 @@
         <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -792,7 +792,7 @@
         <v>41</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -800,19 +800,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -829,7 +829,10 @@
         <v>42</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>43</v>
+        <v>70</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -843,10 +846,10 @@
         <v>17</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -860,27 +863,27 @@
         <v>25</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -888,16 +891,16 @@
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -905,19 +908,19 @@
         <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/audit-SEO-chouette.xlsx
+++ b/audit-SEO-chouette.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\excellentia5\Documents\FORMATION\Git-repos\P4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4932D5F5-9701-420E-9398-43B3BE34F5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8095C4B7-F0B5-4D3C-94C9-7B078798C303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
   <si>
     <t>Catégorie</t>
   </si>
@@ -162,9 +162,6 @@
     <t>Seulement des fichiers au format jpg/jpeg ou png</t>
   </si>
   <si>
-    <t>Utiliser des animations CSS et afficher un texte en cas d'anomalie</t>
-  </si>
-  <si>
     <t>S'assurer que la version mobile ne présente pas d'anomalie d'affichage</t>
   </si>
   <si>
@@ -247,6 +244,9 @@
   </si>
   <si>
     <t>Certains textes sont affichés via un fichier img</t>
+  </si>
+  <si>
+    <t>Permettre aux utilisateurs de comprendre comment interagir avec les champs.</t>
   </si>
 </sst>
 </file>
@@ -571,7 +571,7 @@
   <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -607,7 +607,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -649,13 +649,13 @@
         <v>34</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -663,19 +663,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -695,7 +695,7 @@
         <v>29</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -715,7 +715,7 @@
         <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -723,7 +723,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>20</v>
@@ -735,7 +735,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -755,7 +755,7 @@
         <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -792,7 +792,7 @@
         <v>41</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -800,19 +800,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -829,10 +829,10 @@
         <v>42</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -846,10 +846,13 @@
         <v>17</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>43</v>
+        <v>71</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -863,27 +866,27 @@
         <v>25</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -891,16 +894,16 @@
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -908,19 +911,19 @@
         <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/audit-SEO-chouette.xlsx
+++ b/audit-SEO-chouette.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\excellentia5\Documents\FORMATION\Git-repos\P4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8095C4B7-F0B5-4D3C-94C9-7B078798C303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB7B434-512B-4525-8C38-AB997063E7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
   <si>
     <t>Catégorie</t>
   </si>
@@ -162,9 +162,6 @@
     <t>Seulement des fichiers au format jpg/jpeg ou png</t>
   </si>
   <si>
-    <t>S'assurer que la version mobile ne présente pas d'anomalie d'affichage</t>
-  </si>
-  <si>
     <t>Revoir et optimiser le code CSS</t>
   </si>
   <si>
@@ -247,6 +244,36 @@
   </si>
   <si>
     <t>Permettre aux utilisateurs de comprendre comment interagir avec les champs.</t>
+  </si>
+  <si>
+    <t>Fichier CSS trop grand</t>
+  </si>
+  <si>
+    <t>Accessibilité (dev)</t>
+  </si>
+  <si>
+    <t>Accessibilté (dev)</t>
+  </si>
+  <si>
+    <t>Défaut de conception du CSS</t>
+  </si>
+  <si>
+    <t>Pour une meilleure maintenabilité du site web, il est préférable d'organiser les éléments dans une flexbox contenue dans une grid</t>
+  </si>
+  <si>
+    <t>L'utilisation du CSS rend les mises à jour et maintenances plus chronophages.</t>
+  </si>
+  <si>
+    <t>S'assurer que les versions d'affichage ne présentent pas d'anomalie d'affichage</t>
+  </si>
+  <si>
+    <t>Implique le rallongement qu'un dev mettra à rechercher les segments à modifier pour mettre à jour ou maintenir le site</t>
+  </si>
+  <si>
+    <t>Segmenter le grands fichiers CSS en plusieurs selon la méthode 7-1</t>
+  </si>
+  <si>
+    <t>https://accessibility.belgium.be/fr/articles/images/utilisez-du-vrai-texte-et-pas-du-texte-sous-forme-dimage</t>
   </si>
 </sst>
 </file>
@@ -570,9 +597,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -607,7 +634,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -649,13 +676,13 @@
         <v>34</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -663,19 +690,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -695,7 +722,7 @@
         <v>29</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -715,7 +742,7 @@
         <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -723,7 +750,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>20</v>
@@ -735,7 +762,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -755,7 +782,7 @@
         <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -792,7 +819,7 @@
         <v>41</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -800,19 +827,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -829,10 +856,10 @@
         <v>42</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -846,13 +873,13 @@
         <v>17</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -866,27 +893,30 @@
         <v>25</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>55</v>
+      <c r="G15" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -894,16 +924,22 @@
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>64</v>
+      <c r="F16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -911,25 +947,50 @@
         <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:7" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/audit-SEO-chouette.xlsx
+++ b/audit-SEO-chouette.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\excellentia5\Documents\FORMATION\Git-repos\P4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB7B434-512B-4525-8C38-AB997063E7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B015847D-813B-4B06-9724-83826DB05CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="86">
   <si>
     <t>Catégorie</t>
   </si>
@@ -255,25 +255,40 @@
     <t>Accessibilté (dev)</t>
   </si>
   <si>
-    <t>Défaut de conception du CSS</t>
-  </si>
-  <si>
-    <t>Pour une meilleure maintenabilité du site web, il est préférable d'organiser les éléments dans une flexbox contenue dans une grid</t>
-  </si>
-  <si>
     <t>L'utilisation du CSS rend les mises à jour et maintenances plus chronophages.</t>
   </si>
   <si>
     <t>S'assurer que les versions d'affichage ne présentent pas d'anomalie d'affichage</t>
   </si>
   <si>
-    <t>Implique le rallongement qu'un dev mettra à rechercher les segments à modifier pour mettre à jour ou maintenir le site</t>
-  </si>
-  <si>
     <t>Segmenter le grands fichiers CSS en plusieurs selon la méthode 7-1</t>
   </si>
   <si>
     <t>https://accessibility.belgium.be/fr/articles/images/utilisez-du-vrai-texte-et-pas-du-texte-sous-forme-dimage</t>
+  </si>
+  <si>
+    <t>Défaut de conception du formulaire de contact (CSS)</t>
+  </si>
+  <si>
+    <t>Pour une meilleure maintenabilité du site web, il est préférable d'organiser certains éléments dans une flexbox contenue dans une grid</t>
+  </si>
+  <si>
+    <t>Implique un temps supplémentaire qu'un dev mettra à rechercher les segments à modifier pour mettre à jour ou maintenir le site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                               </t>
+  </si>
+  <si>
+    <t>Les img de textures gènent la lecture des textes</t>
+  </si>
+  <si>
+    <t>Ne pas utiliser d'images de textures ou alors un grain très léger et avec peu d'opacité</t>
+  </si>
+  <si>
+    <t>Les textures trop prononcées peuvent gommer les contrastes entre le texte et l'arrière plan, ce qui peut entrainer des gènes de lectures auprès des utilisateurs</t>
+  </si>
+  <si>
+    <t>Retirer les textures existantes</t>
   </si>
 </sst>
 </file>
@@ -595,11 +610,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1003"/>
+  <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -882,116 +897,137 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="D15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="1:26" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="C20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:7" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1975,6 +2011,7 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/audit-SEO-chouette.xlsx
+++ b/audit-SEO-chouette.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\excellentia5\Documents\FORMATION\Git-repos\P4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B015847D-813B-4B06-9724-83826DB05CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BF4358-975F-40E7-B93F-F73DDA5D200F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="86">
   <si>
     <t>Catégorie</t>
   </si>
@@ -150,9 +150,6 @@
     <t>400 mots minimum par page</t>
   </si>
   <si>
-    <t>Rédiger un texte d'au moins 400 mots pour la page2</t>
-  </si>
-  <si>
     <t>Faire pointer les liens externes vers des sites de partenaires officiels</t>
   </si>
   <si>
@@ -289,6 +286,9 @@
   </si>
   <si>
     <t>Retirer les textures existantes</t>
+  </si>
+  <si>
+    <t>Rédiger un texte d'au moins 400 mots pour la page2 ou fusionner la page contact dans la page accueil</t>
   </si>
 </sst>
 </file>
@@ -333,7 +333,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,6 +349,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -393,6 +399,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -613,8 +622,8 @@
   <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -649,7 +658,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -691,13 +700,13 @@
         <v>34</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -705,19 +714,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -737,7 +746,7 @@
         <v>29</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -757,7 +766,7 @@
         <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -765,7 +774,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>20</v>
@@ -777,7 +786,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -797,7 +806,7 @@
         <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -814,7 +823,10 @@
         <v>38</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>39</v>
+        <v>85</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -828,13 +840,13 @@
         <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -842,19 +854,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -868,13 +880,13 @@
         <v>24</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -888,13 +900,13 @@
         <v>17</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -902,19 +914,19 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -928,30 +940,31 @@
         <v>25</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>43</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:26" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -959,22 +972,22 @@
         <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="F17" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -982,50 +995,50 @@
         <v>11</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="G18" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/audit-SEO-chouette.xlsx
+++ b/audit-SEO-chouette.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\excellentia5\Documents\FORMATION\Git-repos\P4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BF4358-975F-40E7-B93F-F73DDA5D200F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8799985-EC57-425C-97D9-B7C436FF0538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
   <si>
     <t>Catégorie</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>Rédiger un texte d'au moins 400 mots pour la page2 ou fusionner la page contact dans la page accueil</t>
+  </si>
+  <si>
+    <t>Voir le point sur le design responsif incomplet. Le CSS existant permet d'obtenir un formulaire visuellement consistant.</t>
   </si>
 </sst>
 </file>
@@ -333,7 +336,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,12 +352,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -399,9 +396,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -622,8 +616,8 @@
   <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -945,7 +939,9 @@
       <c r="E15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -1027,7 +1023,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>72</v>
       </c>
@@ -1039,6 +1035,12 @@
       </c>
       <c r="D20" s="3" t="s">
         <v>78</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
